--- a/biology/Histoire de la zoologie et de la botanique/Osvaldo_Alfredo_Reig/Osvaldo_Alfredo_Reig.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Osvaldo_Alfredo_Reig/Osvaldo_Alfredo_Reig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osvaldo Alfredo Reig, né le 14 août 1929 à Buenos Aires et mort le 13 mars 1992, est un paléontologue et herpétologiste argentin.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calyptocephalellidae
 Herrerasaurus
@@ -544,7 +558,9 @@
           <t>Taxons qui lui sont dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ctenomys osvaldoreigi
 Aepeomys reigi</t>
@@ -575,7 +591,9 @@
           <t>Référence biographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(es) Biographie et bibliographie
 Osvaldo Reig, page 302, et Reig page 338, dans (en) Bo Beolens, Michael Watkins et Michael Grayson, The Eponym Dictionary of Mammals, JHU Press, 2009.  (ISBN 0801895332), 9780801895333</t>
